--- a/src/main/java/com/MercuryTours/qa/TestData/UI_TestData.xlsx
+++ b/src/main/java/com/MercuryTours/qa/TestData/UI_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\101139\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58E9471-1CB0-4E1E-991C-1A0CB8064A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCEB04B-F45B-48C0-B79D-5FEC6604F20D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,10 +83,10 @@
     <t>Under Construction: Mercury Tours</t>
   </si>
   <si>
+    <t>Welcome: Mercury Tours</t>
+  </si>
+  <si>
     <t>© 2005, Mercury Interactive (v. 011003-1.01-058)</t>
-  </si>
-  <si>
-    <t>Welcome: Mercury Tours</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
